--- a/InputData/elec/SLF/System Load Factor.xlsx
+++ b/InputData/elec/SLF/System Load Factor.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\SLF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\SLF\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF78A96-1B1C-4852-A03C-7092228B1A58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="11580"/>
+    <workbookView xWindow="47445" yWindow="420" windowWidth="13410" windowHeight="14355" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Generation" sheetId="4" r:id="rId2"/>
     <sheet name="Peak Load" sheetId="5" r:id="rId3"/>
     <sheet name="System Load Factor by Year" sheetId="6" r:id="rId4"/>
-    <sheet name="SLF" sheetId="2" r:id="rId5"/>
+    <sheet name="Texas Notes" sheetId="7" r:id="rId5"/>
+    <sheet name="SLF" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="75">
   <si>
     <t>SLF System Load Factor</t>
   </si>
@@ -236,15 +248,37 @@
   <si>
     <t>This variable represents the system load factor - the ratio of the average load over a given period to the peak load</t>
   </si>
+  <si>
+    <t>Total Use (TWh)</t>
+  </si>
+  <si>
+    <t>http://www.ercot.com/content/wcm/lists/144926/ERCOT_2017_State_of_the_Grid_Report.pdf</t>
+  </si>
+  <si>
+    <t>ERCOT 2017 State of the Grid report</t>
+  </si>
+  <si>
+    <t>http://www.ercot.com/content/wcm/lists/197391/2019_ERCOT_State_of_the_Grid_Report.pdf</t>
+  </si>
+  <si>
+    <t>ERCOT 2019 State of the Grid report</t>
+  </si>
+  <si>
+    <t>2010-2019 average</t>
+  </si>
+  <si>
+    <t>2015-2019 average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +330,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFEAF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,10 +432,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -414,6 +463,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -430,7 +492,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,6 +585,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -557,6 +637,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -732,11 +829,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -824,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -990,7 +1087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1003,108 +1100,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="10" t="s">
         <v>52</v>
       </c>
@@ -1752,66 +1849,66 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="14"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="1:17" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
       <c r="O20" s="10" t="s">
         <v>52</v>
       </c>
@@ -2459,25 +2556,25 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2496,10 +2593,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2697,14 +2796,289 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC7FB95-7BF5-4B75-A1E6-265899D07ED4}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="5" width="17.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="14">
+        <v>384</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" ref="C7:C16" si="0">B7/8760*1000000</f>
+        <v>43835.616438356163</v>
+      </c>
+      <c r="D7" s="14">
+        <v>74820</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" ref="E7:E13" si="1">C7/D7</f>
+        <v>0.58588100024533762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="14">
+        <v>376</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>42922.374429223746</v>
+      </c>
+      <c r="D8" s="14">
+        <v>73473</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="1"/>
+        <v>0.58419248471171381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="14">
+        <v>357</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>40753.424657534248</v>
+      </c>
+      <c r="D9" s="15">
+        <v>69512</v>
+      </c>
+      <c r="E9" s="16">
+        <f t="shared" si="1"/>
+        <v>0.58627898287395341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="14">
+        <v>351</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" si="0"/>
+        <v>40068.493150684932</v>
+      </c>
+      <c r="D10" s="15">
+        <v>71110</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="1"/>
+        <v>0.56347198918133778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="14">
+        <v>348</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="0"/>
+        <v>39726.027397260281</v>
+      </c>
+      <c r="D11" s="15">
+        <v>69877</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="1"/>
+        <v>0.56851363677977418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="14">
+        <v>340</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="0"/>
+        <v>38812.78538812785</v>
+      </c>
+      <c r="D12" s="15">
+        <v>66454</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="1"/>
+        <v>0.58405491600397041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="14">
+        <v>332</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" si="0"/>
+        <v>37899.543378995433</v>
+      </c>
+      <c r="D13" s="15">
+        <v>67245</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="1"/>
+        <v>0.56360388696550578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="14">
+        <v>325</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" si="0"/>
+        <v>37100.456621004567</v>
+      </c>
+      <c r="D14" s="15">
+        <v>66548</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" ref="E14:E16" si="2">C14/D14</f>
+        <v>0.55749919788730795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="14">
+        <v>334</v>
+      </c>
+      <c r="C15" s="15">
+        <f t="shared" si="0"/>
+        <v>38127.853881278541</v>
+      </c>
+      <c r="D15" s="15">
+        <v>68304</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.55820821447175184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2010</v>
+      </c>
+      <c r="B16" s="14">
+        <v>319</v>
+      </c>
+      <c r="C16" s="15">
+        <f t="shared" si="0"/>
+        <v>36415.525114155251</v>
+      </c>
+      <c r="D16" s="15">
+        <v>65776</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="2"/>
+        <v>0.55362936502911775</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="17">
+        <f>AVERAGE(E7:E16)</f>
+        <v>0.57053336741497707</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="18">
+        <f>AVERAGE(E7:E11)</f>
+        <v>0.57766761875842332</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{24872619-8753-47B6-8315-7217D777AA49}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{8241A57D-EC1A-441E-B3F4-8281D08A2D06}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2719,10 +3093,11 @@
         <v>63</v>
       </c>
       <c r="B2">
-        <f>AVERAGE('System Load Factor by Year'!D:D)</f>
-        <v>0.61187181314516148</v>
-      </c>
-    </row>
+        <f>'Texas Notes'!C19</f>
+        <v>0.57766761875842332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
